--- a/Invoice&PO-template.xlsx
+++ b/Invoice&PO-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/useradmin/Documents/Filbert/2019/MyProject/curly-lamp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7858360F-1583-744F-8D04-03B962747DB3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A433D135-6863-3E45-A414-CAF1F090B787}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{ACA083AF-AD98-4A5F-B75D-AA14C2D9690E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" activeTab="1" xr2:uid="{ACA083AF-AD98-4A5F-B75D-AA14C2D9690E}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice" sheetId="2" r:id="rId1"/>
@@ -26,17 +26,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>NO</t>
   </si>
   <si>
-    <t>D.O NUMBER</t>
-  </si>
-  <si>
-    <t>CAR NO</t>
-  </si>
-  <si>
     <t>DATE</t>
   </si>
   <si>
@@ -52,22 +46,6 @@
     <t xml:space="preserve">             </t>
   </si>
   <si>
-    <t xml:space="preserve">     PT.SINOMA ENGINEERING INDONESIA</t>
-  </si>
-  <si>
-    <t>BENEFICIARY BANK : BANK MANDIRI INDONESIA</t>
-  </si>
-  <si>
-    <t>NAME: PT SINOMA ENGINEERING INDONESIA</t>
-  </si>
-  <si>
-    <t>ACCOUNT NUMBER : 168-00-0120959-0</t>
-  </si>
-  <si>
-    <t>ADDRESS : Gama Tower 36th Floor, 
-Jl. H.R. Rasuna Said Kav. C22, RT.2/RW.5, Karet Kuningan, South Jakarta City, Jakarta 12940</t>
-  </si>
-  <si>
     <t>QUANTITY</t>
   </si>
   <si>
@@ -95,15 +73,6 @@
     <t>INVOICE</t>
   </si>
   <si>
-    <t>DATE:</t>
-  </si>
-  <si>
-    <t>BPP NO:</t>
-  </si>
-  <si>
-    <t>NPWP NO:</t>
-  </si>
-  <si>
     <t>PT. SINOMA ENGINEERING INDONESIA</t>
   </si>
   <si>
@@ -116,38 +85,10 @@
     <t>________________</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">APB - SIS KSO
-                                                       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">PO Number: </t>
-    </r>
-  </si>
-  <si>
     <t>For and behalf of</t>
   </si>
   <si>
     <t>XIA YI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO : </t>
-  </si>
-  <si>
-    <t>Add : Gama Tower 36th Floor, 
-Jl. H.R. Rasuna Said Kav. C22, RT.2/RW.5, Karet Kuningan, South Jakarta City, Jakarta 12940</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TO: </t>
-  </si>
-  <si>
-    <t>FROM:</t>
   </si>
   <si>
     <r>
@@ -165,6 +106,97 @@
       <t>PT.SINOMA ENGINEERING INDONESIA</t>
     </r>
   </si>
+  <si>
+    <t>ITEM NAME</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Add : Gama Tower 36th Floor, 
+Jl. H.R. Rasuna Said Kav. C22,
+ RT.2/RW.5, Karet Kuningan, 
+South Jakarta City, Jakarta 12940
+Telp : 02130027408</t>
+  </si>
+  <si>
+    <t>PT.SINOMA ENGINEERING INDONESIA</t>
+  </si>
+  <si>
+    <t>: BANK MANDIRI INDONESIA</t>
+  </si>
+  <si>
+    <t>: PT SINOMA ENGINEERING INDONESIA</t>
+  </si>
+  <si>
+    <t>: 168-00-0120959-0</t>
+  </si>
+  <si>
+    <t>: Gama Tower 36th Floor, Jl. H.R. Rasuna Said Kav. C22, RT.2/RW.5, Karet Kuningan, South Jakarta City, Jakarta 12940</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADDRESS                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACCOUNT NUMBER </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAME                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENEFICIARY BANK  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATE : </t>
+  </si>
+  <si>
+    <t>NO     :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TO      : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAYMENT TERM     : </t>
+  </si>
+  <si>
+    <t>PAYMENT DUE        :</t>
+  </si>
+  <si>
+    <t>NPWP NO :</t>
+  </si>
+  <si>
+    <t>PO NO         :</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(Company Name)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">PO Number: </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FROM: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GAMA TOWER 36TH FLOOR,  JL. H.R. RASUNA SAID KAV.  C22, RT.2/RW.5, KARET KUNINGAN,  SOUTH JAKARTA CITY, JAKARTA 12940</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -173,7 +205,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -471,14 +503,25 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -486,15 +529,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -521,6 +567,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -968,169 +1017,221 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CCB3CD9-5E7D-44EE-8582-A52C32C94DBA}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" customWidth="1"/>
     <col min="6" max="6" width="12.83203125" customWidth="1"/>
     <col min="7" max="7" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="24">
       <c r="A1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+        <v>5</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+    <row r="2" spans="1:7" ht="14.5" customHeight="1">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
     </row>
-    <row r="3" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
+    <row r="3" spans="1:7" ht="14.5" customHeight="1"/>
+    <row r="4" spans="1:7" ht="14.5" customHeight="1">
+      <c r="A4" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
     </row>
-    <row r="5" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="14.5" customHeight="1">
+      <c r="A5" s="19" t="s">
+        <v>35</v>
+      </c>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
       <c r="D5" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="19" t="s">
+        <v>34</v>
+      </c>
       <c r="D6" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:7" ht="14.5" customHeight="1">
       <c r="A7" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="D8" s="30"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="30"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="30"/>
+    </row>
+    <row r="11" spans="1:7" ht="16" thickBot="1">
+      <c r="D11" s="31"/>
+    </row>
+    <row r="12" spans="1:7" ht="16" thickBot="1">
       <c r="A12" s="8" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="198" customHeight="1" thickBot="1">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
       <c r="C13" s="12"/>
-      <c r="D13" s="12">
-        <f>B13*C13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="12"/>
+    </row>
+    <row r="14" spans="1:7" ht="22" customHeight="1" thickBot="1">
       <c r="A14" s="10" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="12"/>
     </row>
-    <row r="15" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="23.5" customHeight="1" thickBot="1">
       <c r="A15" s="10" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
-      <c r="D15" s="20"/>
-    </row>
-    <row r="16" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="12">
+        <f>D13*10%</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="23" customHeight="1" thickBot="1">
       <c r="A16" s="14" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
       <c r="D16" s="12">
-        <f>D13*110%</f>
+        <f>SUM(D13:D15)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C19" s="19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C23" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C25" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="22"/>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-    </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
+    <row r="19" spans="3:4">
+      <c r="C19" s="22"/>
+      <c r="D19" s="22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" ht="14.5" customHeight="1">
+      <c r="C20" s="20"/>
+      <c r="D20" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="D21" s="21"/>
+    </row>
+    <row r="24" spans="3:4">
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+    </row>
+    <row r="25" spans="3:4">
+      <c r="D25" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" ht="14.5" customHeight="1">
+      <c r="C26" s="23"/>
+      <c r="D26" s="24"/>
+    </row>
+    <row r="27" spans="3:4" ht="14.5" customHeight="1">
+      <c r="C27" s="23"/>
+      <c r="D27" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4">
+      <c r="C28" s="23"/>
+      <c r="D28" s="27"/>
+    </row>
+    <row r="29" spans="3:4">
+      <c r="C29" s="23"/>
+      <c r="D29" s="27"/>
+    </row>
+    <row r="30" spans="3:4">
+      <c r="D30" s="27"/>
+    </row>
+    <row r="31" spans="3:4">
+      <c r="D31" s="27"/>
+    </row>
+    <row r="37" spans="13:13" ht="14.5" customHeight="1"/>
+    <row r="38" spans="13:13">
+      <c r="M38" s="27"/>
+    </row>
+    <row r="39" spans="13:13">
+      <c r="M39" s="27"/>
+    </row>
+    <row r="40" spans="13:13">
+      <c r="M40" s="27"/>
+    </row>
+    <row r="41" spans="13:13">
+      <c r="M41" s="27"/>
+    </row>
+    <row r="42" spans="13:13">
+      <c r="M42" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C25:D27"/>
+  <mergeCells count="5">
+    <mergeCell ref="M38:M42"/>
     <mergeCell ref="B1:D2"/>
     <mergeCell ref="A4:D4"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="D27:D31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1140,13 +1241,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4BE80B-6316-4C8F-A8C4-7BC74C4DFE7E}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.1640625" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
@@ -1156,79 +1257,80 @@
     <col min="6" max="6" width="11.5" customWidth="1"/>
     <col min="7" max="7" width="21.6640625" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="24">
       <c r="A1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
+        <v>5</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
+    <row r="2" spans="1:10" ht="14.5" customHeight="1">
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="4" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="33"/>
+    <row r="4" spans="1:10" ht="16" thickBot="1"/>
+    <row r="5" spans="1:10" ht="14.5" customHeight="1">
+      <c r="A5" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="39"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="36"/>
+    <row r="6" spans="1:10" ht="29" customHeight="1" thickBot="1">
+      <c r="A6" s="40"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="42"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="16" thickBot="1">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="E7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="16" thickBot="1">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -1240,7 +1342,7 @@
       <c r="G8" s="3"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="16" thickBot="1">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -1252,7 +1354,7 @@
       <c r="G9" s="3"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="16" thickBot="1">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -1264,7 +1366,7 @@
       <c r="G10" s="3"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="16" thickBot="1">
       <c r="A11" s="2">
         <v>4</v>
       </c>
@@ -1276,7 +1378,7 @@
       <c r="G11" s="3"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="16" thickBot="1">
       <c r="A12" s="2">
         <v>5</v>
       </c>
@@ -1288,7 +1390,7 @@
       <c r="G12" s="3"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="16" thickBot="1">
       <c r="A13" s="2">
         <v>6</v>
       </c>
@@ -1300,7 +1402,7 @@
       <c r="G13" s="3"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="16" thickBot="1">
       <c r="A14" s="2">
         <v>7</v>
       </c>
@@ -1312,7 +1414,7 @@
       <c r="G14" s="3"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="16" thickBot="1">
       <c r="A15" s="2">
         <v>8</v>
       </c>
@@ -1324,85 +1426,178 @@
       <c r="G15" s="3"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="30"/>
+    <row r="16" spans="1:10" ht="16" thickBot="1">
+      <c r="A16" s="2">
+        <v>9</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="5"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="3">
-        <f>SUM(G8:G15)</f>
+      <c r="G16" s="3"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" ht="16" thickBot="1">
+      <c r="A17" s="2">
+        <v>10</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" ht="16" thickBot="1">
+      <c r="A18" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3">
+        <f>SUM(G8:G17)</f>
         <v>0</v>
       </c>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="19" t="s">
+      <c r="J18" s="1"/>
+    </row>
+    <row r="20" spans="1:10" ht="14.5" customHeight="1">
+      <c r="A20" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="19" t="s">
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="14.5" customHeight="1">
+      <c r="A21" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-    </row>
-    <row r="21" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="G23" s="19" t="s">
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="14.5" customHeight="1">
+      <c r="A22" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32" t="s">
         <v>28</v>
       </c>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+    </row>
+    <row r="23" spans="1:10" ht="14.5" customHeight="1">
+      <c r="A23" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="43"/>
+      <c r="C23" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="G25" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+    </row>
+    <row r="27" spans="1:10" ht="15" customHeight="1">
+      <c r="A27" s="26"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+    </row>
+    <row r="28" spans="1:10" ht="15" customHeight="1">
+      <c r="B28" s="26"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+    </row>
+    <row r="29" spans="1:10" ht="15" customHeight="1">
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+    </row>
+    <row r="38" spans="6:7" ht="14.5" customHeight="1">
+      <c r="F38" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38" s="27"/>
+    </row>
+    <row r="39" spans="6:7">
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+    </row>
+    <row r="40" spans="6:7">
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+    </row>
+    <row r="41" spans="6:7">
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+    </row>
+    <row r="42" spans="6:7">
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+    </row>
+    <row r="43" spans="6:7">
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="12">
+    <mergeCell ref="C23:E26"/>
+    <mergeCell ref="F38:G43"/>
     <mergeCell ref="D1:G2"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D23"/>
-    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A18:D18"/>
     <mergeCell ref="A5:G6"/>
-    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Invoice&PO-template.xlsx
+++ b/Invoice&PO-template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/useradmin/Documents/Filbert/2019/MyProject/curly-lamp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A433D135-6863-3E45-A414-CAF1F090B787}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272F280D-85A5-D448-8893-EC36959533B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" activeTab="1" xr2:uid="{ACA083AF-AD98-4A5F-B75D-AA14C2D9690E}"/>
   </bookViews>
@@ -40,9 +40,6 @@
     <t>AMOUNT</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t xml:space="preserve">             </t>
   </si>
   <si>
@@ -197,15 +194,19 @@
       <t>GAMA TOWER 36TH FLOOR,  JL. H.R. RASUNA SAID KAV.  C22, RT.2/RW.5, KARET KUNINGAN,  SOUTH JAKARTA CITY, JAKARTA 12940</t>
     </r>
   </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="166" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,7 +308,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -420,17 +421,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -446,7 +436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -460,9 +450,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -472,7 +459,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -520,6 +507,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="justify" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -541,15 +554,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -571,6 +575,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1020,10 +1028,10 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.6640625" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
@@ -1034,196 +1042,199 @@
     <col min="7" max="7" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24">
-      <c r="A1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="2" spans="1:7" ht="14.5" customHeight="1">
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-    </row>
-    <row r="3" spans="1:7" ht="14.5" customHeight="1"/>
-    <row r="4" spans="1:7" ht="14.5" customHeight="1">
-      <c r="A4" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-    </row>
-    <row r="5" spans="1:7" ht="14.5" customHeight="1">
-      <c r="A5" s="19" t="s">
+    <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="18"/>
+    </row>
+    <row r="7" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="19" t="s">
+      <c r="C7" s="19"/>
+      <c r="D7" s="39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D8" s="39"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="39"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="19"/>
-    </row>
-    <row r="7" spans="1:7" ht="14.5" customHeight="1">
-      <c r="A7" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="D8" s="30"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="30"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="30"/>
-    </row>
-    <row r="11" spans="1:7" ht="16" thickBot="1">
-      <c r="D11" s="31"/>
-    </row>
-    <row r="12" spans="1:7" ht="16" thickBot="1">
-      <c r="A12" s="8" t="s">
+      <c r="D10" s="39"/>
+    </row>
+    <row r="11" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="40"/>
+    </row>
+    <row r="12" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="9" t="s">
+    </row>
+    <row r="13" spans="1:7" ht="198" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11">
+        <f>B13*C13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="198" customHeight="1" thickBot="1">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-    </row>
-    <row r="14" spans="1:7" ht="22" customHeight="1" thickBot="1">
-      <c r="A14" s="10" t="s">
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:7" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="12"/>
-    </row>
-    <row r="15" spans="1:7" ht="23.5" customHeight="1" thickBot="1">
-      <c r="A15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="12">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="11">
         <f>D13*10%</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="23" customHeight="1" thickBot="1">
-      <c r="A16" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="12">
+    <row r="16" spans="1:7" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="11">
         <f>SUM(D13:D15)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:4">
-      <c r="C19" s="22"/>
-      <c r="D19" s="22" t="s">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C19" s="21"/>
+      <c r="D19" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="19"/>
+      <c r="D20" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D21" s="20"/>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D25" s="18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="3:4" ht="14.5" customHeight="1">
-      <c r="C20" s="20"/>
-      <c r="D20" s="21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4">
-      <c r="D21" s="21"/>
-    </row>
-    <row r="24" spans="3:4">
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-    </row>
-    <row r="25" spans="3:4">
-      <c r="D25" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4" ht="14.5" customHeight="1">
-      <c r="C26" s="23"/>
-      <c r="D26" s="24"/>
-    </row>
-    <row r="27" spans="3:4" ht="14.5" customHeight="1">
-      <c r="C27" s="23"/>
-      <c r="D27" s="27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="3:4">
-      <c r="C28" s="23"/>
-      <c r="D28" s="27"/>
-    </row>
-    <row r="29" spans="3:4">
-      <c r="C29" s="23"/>
-      <c r="D29" s="27"/>
-    </row>
-    <row r="30" spans="3:4">
-      <c r="D30" s="27"/>
-    </row>
-    <row r="31" spans="3:4">
-      <c r="D31" s="27"/>
-    </row>
-    <row r="37" spans="13:13" ht="14.5" customHeight="1"/>
-    <row r="38" spans="13:13">
-      <c r="M38" s="27"/>
-    </row>
-    <row r="39" spans="13:13">
-      <c r="M39" s="27"/>
-    </row>
-    <row r="40" spans="13:13">
-      <c r="M40" s="27"/>
-    </row>
-    <row r="41" spans="13:13">
-      <c r="M41" s="27"/>
-    </row>
-    <row r="42" spans="13:13">
-      <c r="M42" s="27"/>
+    <row r="26" spans="3:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="22"/>
+      <c r="D26" s="23"/>
+    </row>
+    <row r="27" spans="3:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C27" s="22"/>
+      <c r="D27" s="36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C28" s="22"/>
+      <c r="D28" s="36"/>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C29" s="22"/>
+      <c r="D29" s="36"/>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D30" s="36"/>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D31" s="36"/>
+    </row>
+    <row r="37" spans="13:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="36"/>
+    </row>
+    <row r="39" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M39" s="36"/>
+    </row>
+    <row r="40" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M40" s="36"/>
+    </row>
+    <row r="41" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="36"/>
+    </row>
+    <row r="42" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1241,18 +1252,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4BE80B-6316-4C8F-A8C4-7BC74C4DFE7E}">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.1640625" customWidth="1"/>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" customWidth="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
     <col min="7" max="7" width="21.6640625" customWidth="1"/>
@@ -1260,67 +1271,67 @@
     <col min="12" max="12" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24">
-      <c r="A1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:10" ht="14.5" customHeight="1">
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="4" spans="1:10" ht="16" thickBot="1"/>
-    <row r="5" spans="1:10" ht="14.5" customHeight="1">
-      <c r="A5" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+    <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="4" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" ht="29" customHeight="1" thickBot="1">
-      <c r="A6" s="40"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+    <row r="6" spans="1:10" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="46"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="16" thickBot="1">
+    <row r="7" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>2</v>
@@ -1330,274 +1341,650 @@
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="16" thickBot="1">
+    <row r="8" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="16" thickBot="1">
+    <row r="9" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="16" thickBot="1">
+    <row r="10" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>3</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="16" thickBot="1">
+    <row r="11" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>4</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="16" thickBot="1">
+    <row r="12" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>5</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" ht="16" thickBot="1">
+    <row r="13" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>6</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="16" thickBot="1">
+    <row r="14" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>7</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" ht="16" thickBot="1">
+    <row r="15" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>8</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" ht="16" thickBot="1">
+    <row r="16" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>9</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" ht="16" thickBot="1">
+    <row r="17" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>10</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" ht="16" thickBot="1">
-      <c r="A18" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3">
-        <f>SUM(G8:G17)</f>
+    <row r="18" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>11</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>12</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>13</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>14</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>15</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>16</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>17</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>18</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>19</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>20</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>21</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>22</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>23</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>24</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>25</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>26</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>27</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>28</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>29</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>30</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>31</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>32</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>33</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>34</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>35</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>36</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>37</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>38</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>39</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="J46" s="1"/>
+    </row>
+    <row r="47" spans="1:10" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="33">
+        <v>40</v>
+      </c>
+      <c r="B47" s="33"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="32"/>
+      <c r="J47" s="1"/>
+    </row>
+    <row r="48" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="28"/>
+      <c r="B48" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C48" s="30"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31">
+        <f>SUM(G8:G47)</f>
         <v>0</v>
       </c>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="20" spans="1:10" ht="14.5" customHeight="1">
-      <c r="A20" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32" t="s">
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="34"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="34"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+    </row>
+    <row r="51" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51" s="41"/>
+      <c r="C51" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52" s="41"/>
+      <c r="C52" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="19" t="s">
+      <c r="D52" s="41"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="14.5" customHeight="1">
-      <c r="A21" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32" t="s">
+    <row r="53" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53" s="41"/>
+      <c r="C53" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="19" t="s">
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+    </row>
+    <row r="54" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="B54" s="49"/>
+      <c r="C54" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" s="41"/>
+      <c r="E54" s="41"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="25"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="41"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="25"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="41"/>
+      <c r="G56" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="14.5" customHeight="1">
-      <c r="A22" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-    </row>
-    <row r="23" spans="1:10" ht="14.5" customHeight="1">
-      <c r="A23" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="43"/>
-      <c r="C23" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="G25" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-    </row>
-    <row r="27" spans="1:10" ht="15" customHeight="1">
-      <c r="A27" s="26"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-    </row>
-    <row r="28" spans="1:10" ht="15" customHeight="1">
-      <c r="B28" s="26"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-    </row>
-    <row r="29" spans="1:10" ht="15" customHeight="1">
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-    </row>
-    <row r="38" spans="6:7" ht="14.5" customHeight="1">
-      <c r="F38" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G38" s="27"/>
-    </row>
-    <row r="39" spans="6:7">
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-    </row>
-    <row r="40" spans="6:7">
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-    </row>
-    <row r="41" spans="6:7">
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-    </row>
-    <row r="42" spans="6:7">
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-    </row>
-    <row r="43" spans="6:7">
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="25"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
+    </row>
+    <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="25"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+    </row>
+    <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="25"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+    </row>
+    <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+    </row>
+    <row r="69" spans="6:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F69" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="G69" s="36"/>
+    </row>
+    <row r="70" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F70" s="36"/>
+      <c r="G70" s="36"/>
+    </row>
+    <row r="71" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F71" s="36"/>
+      <c r="G71" s="36"/>
+    </row>
+    <row r="72" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F72" s="36"/>
+      <c r="G72" s="36"/>
+    </row>
+    <row r="73" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F73" s="36"/>
+      <c r="G73" s="36"/>
+    </row>
+    <row r="74" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F74" s="36"/>
+      <c r="G74" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="C23:E26"/>
-    <mergeCell ref="F38:G43"/>
+  <mergeCells count="11">
+    <mergeCell ref="C54:E57"/>
+    <mergeCell ref="F69:G74"/>
     <mergeCell ref="D1:G2"/>
-    <mergeCell ref="A18:D18"/>
     <mergeCell ref="A5:G6"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:E53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Invoice&PO-template.xlsx
+++ b/Invoice&PO-template.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F7CBEE-74C9-48E5-9DBE-3D8AA927CA73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807E857D-C97B-4F42-9CAD-F9DB37A2A5D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice" sheetId="3" r:id="rId1"/>
@@ -187,7 +187,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="_([$Rp-421]* #,##0.00_);_([$Rp-421]* \(#,##0.00\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_([$Rp-421]* #,##0_);_([$Rp-421]* \(#,##0\);_([$Rp-421]* &quot;-&quot;_);_(@_)"/>
@@ -255,7 +256,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -278,11 +279,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -290,9 +328,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -312,9 +347,6 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -353,11 +385,55 @@
     </xf>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -365,50 +441,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -431,8 +468,37 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -869,8 +935,8 @@
   </sheetPr>
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="113" zoomScaleNormal="100" zoomScaleSheetLayoutView="89" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:B14"/>
+    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="100" zoomScaleSheetLayoutView="89" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
@@ -882,37 +948,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24" customHeight="1">
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
     </row>
     <row r="3" spans="1:6" ht="45" customHeight="1">
-      <c r="A3" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
+      <c r="A3" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="47"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -921,10 +987,10 @@
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="48">
+      <c r="B5" s="35">
         <v>44015</v>
       </c>
-      <c r="C5" s="48"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -941,37 +1007,37 @@
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="40"/>
+      <c r="C7" s="43"/>
       <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="40"/>
+      <c r="F7" s="43"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="49" t="s">
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
     </row>
     <row r="9" spans="1:6" ht="48" customHeight="1">
-      <c r="A9" s="50"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
@@ -1006,78 +1072,78 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="25.05" customHeight="1">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="42"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="42"/>
+      <c r="F13" s="45"/>
     </row>
     <row r="14" spans="1:6" ht="144" customHeight="1">
-      <c r="A14" s="43"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="45">
+      <c r="A14" s="38"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="40">
         <f>C14*D14</f>
         <v>0</v>
       </c>
-      <c r="F14" s="46"/>
+      <c r="F14" s="41"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="36">
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="32">
         <f>SUM(E14:F14)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="37"/>
+      <c r="F15" s="33"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="36">
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="32">
         <f>E15*10%</f>
         <v>0</v>
       </c>
-      <c r="F16" s="37"/>
+      <c r="F16" s="33"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="36">
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="32">
         <f>SUM(E15:F16)</f>
         <v>0</v>
       </c>
-      <c r="F17" s="37"/>
+      <c r="F17" s="33"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="10"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="3"/>
@@ -1091,10 +1157,10 @@
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="12"/>
+      <c r="F20" s="11"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="3"/>
@@ -1103,49 +1169,49 @@
       <c r="D21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="12"/>
+      <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="12"/>
-      <c r="F22" s="12"/>
+      <c r="D22" s="11"/>
+      <c r="F22" s="11"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="12"/>
-      <c r="F23" s="12"/>
+      <c r="D23" s="11"/>
+      <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="12"/>
-      <c r="F24" s="12"/>
+      <c r="D24" s="11"/>
+      <c r="F24" s="11"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="12"/>
-      <c r="F25" s="12"/>
+      <c r="D25" s="11"/>
+      <c r="F25" s="11"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="12"/>
-      <c r="F26" s="12"/>
+      <c r="D26" s="11"/>
+      <c r="F26" s="11"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="12"/>
-      <c r="F27" s="12"/>
+      <c r="D27" s="11"/>
+      <c r="F27" s="11"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="3"/>
@@ -1154,28 +1220,41 @@
       <c r="D28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="12"/>
+      <c r="F28" s="11"/>
     </row>
     <row r="32" spans="1:6" ht="63" customHeight="1">
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="34" t="s">
+      <c r="E32" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="F32" s="34"/>
+      <c r="F32" s="46"/>
     </row>
     <row r="33" spans="4:6">
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="35" t="s">
+      <c r="E33" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="F33" s="35"/>
+      <c r="F33" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C1:F2"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
@@ -1183,19 +1262,6 @@
     <mergeCell ref="D8:F9"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C1:F2"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="58" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1208,10 +1274,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="113" zoomScaleNormal="100" zoomScaleSheetLayoutView="89" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A97" zoomScale="113" zoomScaleNormal="100" zoomScaleSheetLayoutView="89" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
@@ -1225,52 +1291,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24" customHeight="1">
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1">
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:7" ht="22.95" customHeight="1">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
     </row>
     <row r="5" spans="1:7" ht="22.05" customHeight="1">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-    </row>
-    <row r="6" spans="1:7" s="12" customFormat="1" ht="19.05" customHeight="1">
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+    </row>
+    <row r="6" spans="1:7" s="11" customFormat="1" ht="19.05" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1289,456 +1355,1576 @@
       <c r="F6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="22" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="12" customFormat="1">
-      <c r="A7" s="7">
+    <row r="7" spans="1:7" s="11" customFormat="1">
+      <c r="A7" s="6">
         <v>1</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="27">
         <f>E7*F7</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="12" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="27">
+    <row r="8" spans="1:7" s="11" customFormat="1" ht="15" customHeight="1">
+      <c r="A8" s="25">
         <v>2</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="27">
         <f t="shared" ref="G8:G9" si="0">E8*F8</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="12" customFormat="1">
-      <c r="A9" s="6">
+    <row r="9" spans="1:7" s="11" customFormat="1">
+      <c r="A9" s="30">
         <v>3</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="12" customFormat="1">
-      <c r="A10" s="7">
+    <row r="10" spans="1:7" s="11" customFormat="1">
+      <c r="A10" s="30">
         <v>4</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="27">
         <f>E10*F10</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="12" customFormat="1">
-      <c r="A11" s="13">
+    <row r="11" spans="1:7" s="11" customFormat="1">
+      <c r="A11" s="25">
         <v>5</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="29">
-        <f t="shared" ref="G11:G26" si="1">E11*F11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="12" customFormat="1">
-      <c r="A12" s="27">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="27">
+        <f t="shared" ref="G11:G106" si="1">E11*F11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="11" customFormat="1">
+      <c r="A12" s="30">
         <v>6</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="29">
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="27">
+        <f t="shared" ref="G12" si="2">E12*F12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="11" customFormat="1">
+      <c r="A13" s="30">
+        <v>7</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="12" customFormat="1">
-      <c r="A13" s="15">
+    <row r="14" spans="1:7" s="11" customFormat="1">
+      <c r="A14" s="25">
+        <v>8</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="11" customFormat="1">
+      <c r="A15" s="30">
+        <v>9</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="11" customFormat="1">
+      <c r="A16" s="30">
+        <v>10</v>
+      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="11" customFormat="1">
+      <c r="A17" s="25">
+        <v>11</v>
+      </c>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="11" customFormat="1">
+      <c r="A18" s="30">
+        <v>12</v>
+      </c>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="27">
+        <f t="shared" ref="G18:G96" si="3">E18*F18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="11" customFormat="1">
+      <c r="A19" s="30">
+        <v>13</v>
+      </c>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="27">
+        <f>E19*F19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="11" customFormat="1" ht="15" customHeight="1">
+      <c r="A20" s="25">
+        <v>14</v>
+      </c>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="27">
+        <f t="shared" ref="G20:G21" si="4">E20*F20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="11" customFormat="1">
+      <c r="A21" s="30">
+        <v>15</v>
+      </c>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="11" customFormat="1">
+      <c r="A22" s="30">
+        <v>16</v>
+      </c>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="27">
+        <f>E22*F22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="11" customFormat="1">
+      <c r="A23" s="25">
+        <v>17</v>
+      </c>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="27">
+        <f t="shared" ref="G23:G95" si="5">E23*F23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="11" customFormat="1">
+      <c r="A24" s="30">
+        <v>18</v>
+      </c>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="11" customFormat="1">
+      <c r="A25" s="30">
+        <v>19</v>
+      </c>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="11" customFormat="1">
+      <c r="A26" s="25">
+        <v>20</v>
+      </c>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="11" customFormat="1">
+      <c r="A27" s="30">
+        <v>21</v>
+      </c>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="11" customFormat="1">
+      <c r="A28" s="30">
+        <v>22</v>
+      </c>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="11" customFormat="1">
+      <c r="A29" s="25">
+        <v>23</v>
+      </c>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="27">
+        <f>E29*F29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="11" customFormat="1" ht="15" customHeight="1">
+      <c r="A30" s="30">
+        <v>24</v>
+      </c>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="27">
+        <f t="shared" ref="G30:G31" si="6">E30*F30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="11" customFormat="1">
+      <c r="A31" s="30">
+        <v>25</v>
+      </c>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="11" customFormat="1">
+      <c r="A32" s="25">
+        <v>26</v>
+      </c>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="27">
+        <f>E32*F32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="11" customFormat="1">
+      <c r="A33" s="30">
+        <v>27</v>
+      </c>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="27">
+        <f t="shared" ref="G33:G50" si="7">E33*F33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="11" customFormat="1">
+      <c r="A34" s="30">
+        <v>28</v>
+      </c>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="11" customFormat="1">
+      <c r="A35" s="25">
+        <v>29</v>
+      </c>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="11" customFormat="1">
+      <c r="A36" s="30">
+        <v>30</v>
+      </c>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="11" customFormat="1">
+      <c r="A37" s="30">
+        <v>31</v>
+      </c>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="11" customFormat="1">
+      <c r="A38" s="25">
+        <v>32</v>
+      </c>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="11" customFormat="1">
+      <c r="A39" s="30">
+        <v>33</v>
+      </c>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="11" customFormat="1">
+      <c r="A40" s="30">
+        <v>34</v>
+      </c>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="11" customFormat="1">
+      <c r="A41" s="25">
+        <v>35</v>
+      </c>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="27">
+        <f>E41*F41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="11" customFormat="1" ht="15" customHeight="1">
+      <c r="A42" s="30">
+        <v>36</v>
+      </c>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="27">
+        <f t="shared" ref="G42:G43" si="8">E42*F42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="11" customFormat="1">
+      <c r="A43" s="30">
+        <v>37</v>
+      </c>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="11" customFormat="1">
+      <c r="A44" s="25">
+        <v>38</v>
+      </c>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="27">
+        <f>E44*F44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="11" customFormat="1">
+      <c r="A45" s="30">
+        <v>39</v>
+      </c>
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="27">
+        <f t="shared" ref="G45:G50" si="9">E45*F45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="11" customFormat="1">
+      <c r="A46" s="30">
+        <v>40</v>
+      </c>
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="11" customFormat="1">
+      <c r="A47" s="25">
+        <v>41</v>
+      </c>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="11" customFormat="1">
+      <c r="A48" s="30">
+        <v>42</v>
+      </c>
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="11" customFormat="1">
+      <c r="A49" s="30">
+        <v>43</v>
+      </c>
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="67"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="11" customFormat="1">
+      <c r="A50" s="25">
+        <v>44</v>
+      </c>
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="68"/>
+      <c r="E50" s="62"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="11" customFormat="1">
+      <c r="A51" s="30">
+        <v>45</v>
+      </c>
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="60"/>
+      <c r="F51" s="63"/>
+      <c r="G51" s="27">
+        <f>E51*F51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="11" customFormat="1" ht="15" customHeight="1">
+      <c r="A52" s="30">
+        <v>46</v>
+      </c>
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="63"/>
+      <c r="G52" s="27">
+        <f t="shared" ref="G52:G53" si="10">E52*F52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" s="11" customFormat="1">
+      <c r="A53" s="25">
+        <v>47</v>
+      </c>
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="61"/>
+      <c r="F53" s="63"/>
+      <c r="G53" s="27">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="11" customFormat="1">
+      <c r="A54" s="30">
+        <v>48</v>
+      </c>
+      <c r="B54" s="30"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="60"/>
+      <c r="F54" s="63"/>
+      <c r="G54" s="27">
+        <f>E54*F54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="11" customFormat="1">
+      <c r="A55" s="30">
+        <v>49</v>
+      </c>
+      <c r="B55" s="30"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="60"/>
+      <c r="F55" s="64"/>
+      <c r="G55" s="27">
+        <f t="shared" ref="G55:G94" si="11">E55*F55</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" s="11" customFormat="1">
+      <c r="A56" s="25">
+        <v>50</v>
+      </c>
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="65"/>
+      <c r="G56" s="27">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" s="11" customFormat="1">
+      <c r="A57" s="30">
+        <v>51</v>
+      </c>
+      <c r="B57" s="31"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="61"/>
+      <c r="F57" s="65"/>
+      <c r="G57" s="27">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" s="11" customFormat="1">
+      <c r="A58" s="30">
+        <v>52</v>
+      </c>
+      <c r="B58" s="31"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="67"/>
+      <c r="E58" s="61"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="27">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" s="11" customFormat="1">
+      <c r="A59" s="25">
+        <v>53</v>
+      </c>
+      <c r="B59" s="31"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="67"/>
+      <c r="E59" s="61"/>
+      <c r="F59" s="65"/>
+      <c r="G59" s="27">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" s="11" customFormat="1">
+      <c r="A60" s="30">
+        <v>54</v>
+      </c>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="68"/>
+      <c r="E60" s="62"/>
+      <c r="F60" s="66"/>
+      <c r="G60" s="27">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" s="11" customFormat="1">
+      <c r="A61" s="30">
+        <v>55</v>
+      </c>
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="68"/>
+      <c r="E61" s="62"/>
+      <c r="F61" s="66"/>
+      <c r="G61" s="27">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" s="11" customFormat="1">
+      <c r="A62" s="25">
+        <v>56</v>
+      </c>
+      <c r="B62" s="31"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="67"/>
+      <c r="E62" s="61"/>
+      <c r="F62" s="65"/>
+      <c r="G62" s="27">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" s="11" customFormat="1">
+      <c r="A63" s="30">
+        <v>57</v>
+      </c>
+      <c r="B63" s="30"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="60"/>
+      <c r="F63" s="63"/>
+      <c r="G63" s="27">
+        <f>E63*F63</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" s="11" customFormat="1" ht="15" customHeight="1">
+      <c r="A64" s="30">
+        <v>58</v>
+      </c>
+      <c r="B64" s="30"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="61"/>
+      <c r="F64" s="63"/>
+      <c r="G64" s="27">
+        <f t="shared" ref="G64:G65" si="12">E64*F64</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" s="11" customFormat="1">
+      <c r="A65" s="25">
+        <v>59</v>
+      </c>
+      <c r="B65" s="30"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="61"/>
+      <c r="F65" s="63"/>
+      <c r="G65" s="27">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" s="11" customFormat="1">
+      <c r="A66" s="30">
+        <v>60</v>
+      </c>
+      <c r="B66" s="30"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="60"/>
+      <c r="F66" s="63"/>
+      <c r="G66" s="27">
+        <f>E66*F66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" s="11" customFormat="1">
+      <c r="A67" s="30">
+        <v>61</v>
+      </c>
+      <c r="B67" s="30"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="60"/>
+      <c r="F67" s="64"/>
+      <c r="G67" s="27">
+        <f t="shared" ref="G67:G94" si="13">E67*F67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" s="11" customFormat="1">
+      <c r="A68" s="25">
+        <v>62</v>
+      </c>
+      <c r="B68" s="31"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="67"/>
+      <c r="E68" s="61"/>
+      <c r="F68" s="65"/>
+      <c r="G68" s="27">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" s="11" customFormat="1">
+      <c r="A69" s="30">
+        <v>63</v>
+      </c>
+      <c r="B69" s="31"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="67"/>
+      <c r="E69" s="61"/>
+      <c r="F69" s="65"/>
+      <c r="G69" s="27">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" s="11" customFormat="1">
+      <c r="A70" s="30">
+        <v>64</v>
+      </c>
+      <c r="B70" s="31"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="67"/>
+      <c r="E70" s="61"/>
+      <c r="F70" s="65"/>
+      <c r="G70" s="27">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" s="11" customFormat="1">
+      <c r="A71" s="25">
+        <v>65</v>
+      </c>
+      <c r="B71" s="31"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="67"/>
+      <c r="E71" s="61"/>
+      <c r="F71" s="65"/>
+      <c r="G71" s="27">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" s="11" customFormat="1">
+      <c r="A72" s="30">
+        <v>66</v>
+      </c>
+      <c r="B72" s="26"/>
+      <c r="C72" s="26"/>
+      <c r="D72" s="68"/>
+      <c r="E72" s="62"/>
+      <c r="F72" s="66"/>
+      <c r="G72" s="27">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" s="11" customFormat="1">
+      <c r="A73" s="30">
+        <v>67</v>
+      </c>
+      <c r="B73" s="30"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="60"/>
+      <c r="F73" s="63"/>
+      <c r="G73" s="27">
+        <f>E73*F73</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" s="11" customFormat="1" ht="15" customHeight="1">
+      <c r="A74" s="25">
+        <v>68</v>
+      </c>
+      <c r="B74" s="30"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="61"/>
+      <c r="F74" s="63"/>
+      <c r="G74" s="27">
+        <f t="shared" ref="G74:G75" si="14">E74*F74</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" s="11" customFormat="1">
+      <c r="A75" s="30">
+        <v>69</v>
+      </c>
+      <c r="B75" s="30"/>
+      <c r="C75" s="30"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="61"/>
+      <c r="F75" s="63"/>
+      <c r="G75" s="27">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" s="11" customFormat="1">
+      <c r="A76" s="30">
+        <v>70</v>
+      </c>
+      <c r="B76" s="30"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="60"/>
+      <c r="F76" s="63"/>
+      <c r="G76" s="27">
+        <f>E76*F76</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" s="11" customFormat="1">
+      <c r="A77" s="25">
+        <v>71</v>
+      </c>
+      <c r="B77" s="30"/>
+      <c r="C77" s="30"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="60"/>
+      <c r="F77" s="64"/>
+      <c r="G77" s="27">
+        <f t="shared" ref="G77:G94" si="15">E77*F77</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" s="11" customFormat="1">
+      <c r="A78" s="30">
+        <v>72</v>
+      </c>
+      <c r="B78" s="31"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="67"/>
+      <c r="E78" s="61"/>
+      <c r="F78" s="65"/>
+      <c r="G78" s="27">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" s="11" customFormat="1">
+      <c r="A79" s="30">
+        <v>73</v>
+      </c>
+      <c r="B79" s="31"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="67"/>
+      <c r="E79" s="61"/>
+      <c r="F79" s="65"/>
+      <c r="G79" s="27">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" s="11" customFormat="1">
+      <c r="A80" s="25">
+        <v>74</v>
+      </c>
+      <c r="B80" s="31"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="67"/>
+      <c r="E80" s="61"/>
+      <c r="F80" s="65"/>
+      <c r="G80" s="27">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" s="11" customFormat="1">
+      <c r="A81" s="30">
+        <v>75</v>
+      </c>
+      <c r="B81" s="31"/>
+      <c r="C81" s="31"/>
+      <c r="D81" s="67"/>
+      <c r="E81" s="61"/>
+      <c r="F81" s="65"/>
+      <c r="G81" s="27">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" s="11" customFormat="1">
+      <c r="A82" s="30">
+        <v>76</v>
+      </c>
+      <c r="B82" s="26"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="68"/>
+      <c r="E82" s="62"/>
+      <c r="F82" s="66"/>
+      <c r="G82" s="27">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" s="11" customFormat="1">
+      <c r="A83" s="25">
+        <v>77</v>
+      </c>
+      <c r="B83" s="26"/>
+      <c r="C83" s="26"/>
+      <c r="D83" s="68"/>
+      <c r="E83" s="62"/>
+      <c r="F83" s="66"/>
+      <c r="G83" s="27">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" s="11" customFormat="1">
+      <c r="A84" s="30">
+        <v>78</v>
+      </c>
+      <c r="B84" s="31"/>
+      <c r="C84" s="31"/>
+      <c r="D84" s="67"/>
+      <c r="E84" s="61"/>
+      <c r="F84" s="65"/>
+      <c r="G84" s="27">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" s="11" customFormat="1">
+      <c r="A85" s="30">
+        <v>79</v>
+      </c>
+      <c r="B85" s="30"/>
+      <c r="C85" s="30"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="60"/>
+      <c r="F85" s="63"/>
+      <c r="G85" s="27">
+        <f>E85*F85</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" s="11" customFormat="1" ht="15" customHeight="1">
+      <c r="A86" s="25">
+        <v>80</v>
+      </c>
+      <c r="B86" s="30"/>
+      <c r="C86" s="30"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="61"/>
+      <c r="F86" s="63"/>
+      <c r="G86" s="27">
+        <f t="shared" ref="G86:G87" si="16">E86*F86</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" s="11" customFormat="1">
+      <c r="A87" s="30">
+        <v>81</v>
+      </c>
+      <c r="B87" s="30"/>
+      <c r="C87" s="30"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="61"/>
+      <c r="F87" s="63"/>
+      <c r="G87" s="27">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" s="11" customFormat="1">
+      <c r="A88" s="30">
+        <v>82</v>
+      </c>
+      <c r="B88" s="30"/>
+      <c r="C88" s="30"/>
+      <c r="D88" s="23"/>
+      <c r="E88" s="60"/>
+      <c r="F88" s="63"/>
+      <c r="G88" s="27">
+        <f>E88*F88</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" s="11" customFormat="1">
+      <c r="A89" s="25">
+        <v>83</v>
+      </c>
+      <c r="B89" s="30"/>
+      <c r="C89" s="30"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="60"/>
+      <c r="F89" s="64"/>
+      <c r="G89" s="27">
+        <f t="shared" ref="G89:G94" si="17">E89*F89</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" s="11" customFormat="1">
+      <c r="A90" s="30">
+        <v>84</v>
+      </c>
+      <c r="B90" s="31"/>
+      <c r="C90" s="31"/>
+      <c r="D90" s="67"/>
+      <c r="E90" s="61"/>
+      <c r="F90" s="65"/>
+      <c r="G90" s="27">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" s="11" customFormat="1">
+      <c r="A91" s="30">
+        <v>85</v>
+      </c>
+      <c r="B91" s="31"/>
+      <c r="C91" s="31"/>
+      <c r="D91" s="67"/>
+      <c r="E91" s="61"/>
+      <c r="F91" s="65"/>
+      <c r="G91" s="27">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" s="11" customFormat="1">
+      <c r="A92" s="25">
+        <v>86</v>
+      </c>
+      <c r="B92" s="31"/>
+      <c r="C92" s="31"/>
+      <c r="D92" s="67"/>
+      <c r="E92" s="61"/>
+      <c r="F92" s="65"/>
+      <c r="G92" s="27">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" s="11" customFormat="1">
+      <c r="A93" s="30">
+        <v>87</v>
+      </c>
+      <c r="B93" s="31"/>
+      <c r="C93" s="31"/>
+      <c r="D93" s="67"/>
+      <c r="E93" s="61"/>
+      <c r="F93" s="65"/>
+      <c r="G93" s="27">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" s="11" customFormat="1">
+      <c r="A94" s="30">
+        <v>88</v>
+      </c>
+      <c r="B94" s="26"/>
+      <c r="C94" s="26"/>
+      <c r="D94" s="68"/>
+      <c r="E94" s="62"/>
+      <c r="F94" s="66"/>
+      <c r="G94" s="27">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" s="11" customFormat="1">
+      <c r="A95" s="25">
+        <v>89</v>
+      </c>
+      <c r="B95" s="26"/>
+      <c r="C95" s="26"/>
+      <c r="D95" s="68"/>
+      <c r="E95" s="62"/>
+      <c r="F95" s="66"/>
+      <c r="G95" s="27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" s="11" customFormat="1">
+      <c r="A96" s="30">
+        <v>90</v>
+      </c>
+      <c r="B96" s="26"/>
+      <c r="C96" s="26"/>
+      <c r="D96" s="68"/>
+      <c r="E96" s="62"/>
+      <c r="F96" s="66"/>
+      <c r="G96" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" s="11" customFormat="1">
+      <c r="A97" s="30">
+        <v>91</v>
+      </c>
+      <c r="B97" s="26"/>
+      <c r="C97" s="26"/>
+      <c r="D97" s="68"/>
+      <c r="E97" s="62"/>
+      <c r="F97" s="66"/>
+      <c r="G97" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" s="11" customFormat="1">
+      <c r="A98" s="25">
+        <v>92</v>
+      </c>
+      <c r="B98" s="26"/>
+      <c r="C98" s="26"/>
+      <c r="D98" s="68"/>
+      <c r="E98" s="62"/>
+      <c r="F98" s="66"/>
+      <c r="G98" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" s="11" customFormat="1">
+      <c r="A99" s="30">
+        <v>93</v>
+      </c>
+      <c r="B99" s="26"/>
+      <c r="C99" s="26"/>
+      <c r="D99" s="68"/>
+      <c r="E99" s="62"/>
+      <c r="F99" s="66"/>
+      <c r="G99" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" s="11" customFormat="1">
+      <c r="A100" s="30">
+        <v>94</v>
+      </c>
+      <c r="B100" s="26"/>
+      <c r="C100" s="26"/>
+      <c r="D100" s="68"/>
+      <c r="E100" s="62"/>
+      <c r="F100" s="66"/>
+      <c r="G100" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" s="11" customFormat="1">
+      <c r="A101" s="25">
+        <v>95</v>
+      </c>
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="68"/>
+      <c r="E101" s="62"/>
+      <c r="F101" s="66"/>
+      <c r="G101" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" s="11" customFormat="1">
+      <c r="A102" s="30">
+        <v>96</v>
+      </c>
+      <c r="B102" s="6"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="68"/>
+      <c r="E102" s="62"/>
+      <c r="F102" s="66"/>
+      <c r="G102" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" s="11" customFormat="1">
+      <c r="A103" s="30">
+        <v>97</v>
+      </c>
+      <c r="B103" s="6"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="68"/>
+      <c r="E103" s="62"/>
+      <c r="F103" s="66"/>
+      <c r="G103" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" s="11" customFormat="1">
+      <c r="A104" s="25">
+        <v>98</v>
+      </c>
+      <c r="B104" s="30"/>
+      <c r="C104" s="30"/>
+      <c r="D104" s="68"/>
+      <c r="E104" s="62"/>
+      <c r="F104" s="66"/>
+      <c r="G104" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" s="11" customFormat="1">
+      <c r="A105" s="30">
+        <v>99</v>
+      </c>
+      <c r="B105" s="30"/>
+      <c r="C105" s="30"/>
+      <c r="D105" s="68"/>
+      <c r="E105" s="62"/>
+      <c r="F105" s="66"/>
+      <c r="G105" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" s="11" customFormat="1">
+      <c r="A106" s="30">
+        <v>100</v>
+      </c>
+      <c r="B106" s="30"/>
+      <c r="C106" s="30"/>
+      <c r="D106" s="68"/>
+      <c r="E106" s="62"/>
+      <c r="F106" s="66"/>
+      <c r="G106" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" s="11" customFormat="1">
+      <c r="A107" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="B107" s="58"/>
+      <c r="C107" s="58"/>
+      <c r="D107" s="59"/>
+      <c r="E107" s="24">
+        <f>SUM(E7:E106)</f>
+        <v>0</v>
+      </c>
+      <c r="F107" s="29"/>
+      <c r="G107" s="28">
+        <f>SUM(G7:G106)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" s="11" customFormat="1">
+      <c r="A108" s="14"/>
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="16"/>
+      <c r="E108" s="16"/>
+      <c r="F108" s="20"/>
+    </row>
+    <row r="109" spans="1:7" s="11" customFormat="1">
+      <c r="F109" s="21"/>
+    </row>
+    <row r="110" spans="1:7" s="11" customFormat="1">
+      <c r="F110" s="21"/>
+    </row>
+    <row r="111" spans="1:7" s="11" customFormat="1">
+      <c r="A111" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="B111" s="51"/>
+      <c r="C111" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="D111" s="49"/>
+      <c r="E111" s="49"/>
+      <c r="F111" s="52">
+        <v>44015</v>
+      </c>
+      <c r="G111" s="52"/>
+    </row>
+    <row r="112" spans="1:7" s="11" customFormat="1">
+      <c r="A112" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="B112" s="51"/>
+      <c r="C112" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="12" customFormat="1">
-      <c r="A14" s="13">
-        <v>8</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="12" customFormat="1">
-      <c r="A15" s="13">
-        <v>9</v>
-      </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="12" customFormat="1">
-      <c r="A16" s="27">
-        <v>10</v>
-      </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="12" customFormat="1">
-      <c r="A17" s="15">
-        <v>11</v>
-      </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="12" customFormat="1">
-      <c r="A18" s="13">
-        <v>12</v>
-      </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="12" customFormat="1">
-      <c r="A19" s="13">
-        <v>13</v>
-      </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="12" customFormat="1">
-      <c r="A20" s="27">
-        <v>14</v>
-      </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="12" customFormat="1">
-      <c r="A21" s="15">
-        <v>15</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="12" customFormat="1">
-      <c r="A22" s="13">
-        <v>16</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="12" customFormat="1">
-      <c r="A23" s="13">
-        <v>17</v>
-      </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="12" customFormat="1">
-      <c r="A24" s="27">
-        <v>18</v>
-      </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="12" customFormat="1">
-      <c r="A25" s="15">
-        <v>19</v>
-      </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="12" customFormat="1">
-      <c r="A26" s="13">
-        <v>20</v>
-      </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="12" customFormat="1">
-      <c r="A27" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="26">
-        <f>SUM(E7:E26)</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="33"/>
-      <c r="G27" s="30">
-        <f>SUM(G7:G26)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="12" customFormat="1">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="22"/>
-    </row>
-    <row r="29" spans="1:7" s="12" customFormat="1">
-      <c r="F29" s="23"/>
-    </row>
-    <row r="30" spans="1:7" s="12" customFormat="1">
-      <c r="F30" s="23"/>
-    </row>
-    <row r="31" spans="1:7" s="12" customFormat="1">
-      <c r="A31" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="52"/>
-      <c r="C31" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="53">
-        <v>44015</v>
-      </c>
-      <c r="G31" s="53"/>
-    </row>
-    <row r="32" spans="1:7" s="12" customFormat="1">
-      <c r="A32" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="52"/>
-      <c r="C32" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="54" t="s">
+      <c r="D112" s="49"/>
+      <c r="E112" s="49"/>
+      <c r="F112" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="G32" s="54"/>
-    </row>
-    <row r="33" spans="1:7" s="12" customFormat="1">
-      <c r="A33" s="52" t="s">
+      <c r="G112" s="53"/>
+    </row>
+    <row r="113" spans="1:7" s="11" customFormat="1">
+      <c r="A113" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="52"/>
-      <c r="C33" s="58" t="s">
+      <c r="B113" s="51"/>
+      <c r="C113" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="19"/>
-    </row>
-    <row r="34" spans="1:7" s="12" customFormat="1">
-      <c r="A34" s="52" t="s">
+      <c r="D113" s="49"/>
+      <c r="E113" s="49"/>
+      <c r="F113" s="17"/>
+    </row>
+    <row r="114" spans="1:7" s="11" customFormat="1">
+      <c r="A114" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="52"/>
-      <c r="C34" s="56" t="s">
+      <c r="B114" s="51"/>
+      <c r="C114" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="21"/>
-    </row>
-    <row r="35" spans="1:7" s="12" customFormat="1">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="20"/>
-    </row>
-    <row r="36" spans="1:7" s="12" customFormat="1">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="55" t="s">
+      <c r="D114" s="56"/>
+      <c r="E114" s="56"/>
+      <c r="F114" s="19"/>
+    </row>
+    <row r="115" spans="1:7" s="11" customFormat="1">
+      <c r="A115" s="14"/>
+      <c r="B115" s="14"/>
+      <c r="C115" s="56"/>
+      <c r="D115" s="56"/>
+      <c r="E115" s="56"/>
+      <c r="F115" s="18"/>
+    </row>
+    <row r="116" spans="1:7" s="11" customFormat="1">
+      <c r="A116" s="14"/>
+      <c r="B116" s="14"/>
+      <c r="C116" s="56"/>
+      <c r="D116" s="56"/>
+      <c r="E116" s="56"/>
+      <c r="F116" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="G36" s="55"/>
-    </row>
-    <row r="37" spans="1:7" s="12" customFormat="1">
-      <c r="F37" s="23"/>
-    </row>
-    <row r="38" spans="1:7" s="12" customFormat="1">
-      <c r="F38" s="23"/>
-    </row>
-    <row r="39" spans="1:7" s="12" customFormat="1">
-      <c r="F39" s="23"/>
-    </row>
-    <row r="40" spans="1:7" s="12" customFormat="1">
-      <c r="F40" s="23"/>
-    </row>
-    <row r="41" spans="1:7" s="12" customFormat="1">
-      <c r="F41" s="23"/>
-    </row>
-    <row r="42" spans="1:7" s="12" customFormat="1">
-      <c r="F42" s="23"/>
-    </row>
-    <row r="43" spans="1:7" s="12" customFormat="1">
-      <c r="F43" s="23"/>
-    </row>
-    <row r="44" spans="1:7" s="12" customFormat="1">
-      <c r="F44" s="23"/>
-    </row>
-    <row r="45" spans="1:7" s="12" customFormat="1"/>
-    <row r="46" spans="1:7" ht="63" customHeight="1">
-      <c r="E46" s="11" t="s">
+      <c r="G116" s="54"/>
+    </row>
+    <row r="117" spans="1:7" s="11" customFormat="1">
+      <c r="F117" s="21"/>
+    </row>
+    <row r="118" spans="1:7" s="11" customFormat="1">
+      <c r="F118" s="21"/>
+    </row>
+    <row r="119" spans="1:7" s="11" customFormat="1">
+      <c r="F119" s="21"/>
+    </row>
+    <row r="120" spans="1:7" s="11" customFormat="1">
+      <c r="F120" s="21"/>
+    </row>
+    <row r="121" spans="1:7" s="11" customFormat="1">
+      <c r="F121" s="21"/>
+    </row>
+    <row r="122" spans="1:7" s="11" customFormat="1">
+      <c r="F122" s="21"/>
+    </row>
+    <row r="123" spans="1:7" s="11" customFormat="1">
+      <c r="F123" s="21"/>
+    </row>
+    <row r="124" spans="1:7" s="11" customFormat="1">
+      <c r="F124" s="21"/>
+    </row>
+    <row r="125" spans="1:7" s="11" customFormat="1"/>
+    <row r="126" spans="1:7" ht="63" customHeight="1">
+      <c r="E126" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F46" s="34" t="s">
+      <c r="F126" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="G46" s="34"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="E47" s="11" t="s">
+      <c r="G126" s="46"/>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="E127" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F47" s="35" t="s">
+      <c r="F127" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="G47" s="35"/>
+      <c r="G127" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="C112:E112"/>
+    <mergeCell ref="C113:E113"/>
+    <mergeCell ref="F126:G126"/>
+    <mergeCell ref="F127:G127"/>
     <mergeCell ref="C1:G2"/>
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:E36"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="F111:G111"/>
+    <mergeCell ref="F112:G112"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:E116"/>
+    <mergeCell ref="C111:E111"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="94" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
